--- a/Boilerplate Budidaya Ikan (Lele, Gurami, dkk).xlsx
+++ b/Boilerplate Budidaya Ikan (Lele, Gurami, dkk).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangsakawira/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangsakawira/Desktop/Budidaya/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0245E78-5CAA-9641-9EDE-F7BEDE12E3C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721C70F3-A7A3-C84C-BBDF-140FD1D42C34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{282D13CC-2B59-9447-8308-D44B64962B75}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{282D13CC-2B59-9447-8308-D44B64962B75}"/>
   </bookViews>
   <sheets>
     <sheet name="Budidaya Lele" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
   <si>
     <t>PANDUAN BUDIDAYA LELE PER 500 EKOR</t>
   </si>
@@ -62,13 +62,61 @@
   </si>
   <si>
     <t>Minggu</t>
+  </si>
+  <si>
+    <t>Minggu ke-1</t>
+  </si>
+  <si>
+    <t>Kolam</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSIAPAN SEBELUM MEMASUKKAN BIBIT </t>
+  </si>
+  <si>
+    <t>Ukuran Kolam</t>
+  </si>
+  <si>
+    <t>Perlengkapan</t>
+  </si>
+  <si>
+    <t>Kolam bisa terpal, tanah, semen dan lainnya. Kolam terpal lebih baik digunakan untuk pemula.</t>
+  </si>
+  <si>
+    <t>Air diberikan probiotik agar tumbuh lumut, plankton dll, didiamkan selama minimal 7 hari.</t>
+  </si>
+  <si>
+    <t>Per 500 ekor memerlukan volume minimal 6000 kubik air pakai kolam ukuran (1,5 m x 1 m x 1 m) dengan bahan A8</t>
+  </si>
+  <si>
+    <t>Opsional Tabung oksigen, pompa air.</t>
+  </si>
+  <si>
+    <t>Pangan</t>
+  </si>
+  <si>
+    <t>Bibit</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Perawatan</t>
+  </si>
+  <si>
+    <t>Lainnya (Pemberian Obat dkk)</t>
+  </si>
+  <si>
+    <t>Minggu ke-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,16 +126,37 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri (Body)"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -182,36 +251,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -221,11 +272,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,518 +616,1311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50454612-1D3F-8C4C-9CC4-1DC48507708B}">
-  <dimension ref="B2:K47"/>
+  <dimension ref="B2:P89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="29.83203125" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" customWidth="1"/>
+    <col min="8" max="9" width="23.83203125" customWidth="1"/>
+    <col min="16" max="16" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
+      <c r="K5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="4"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="4"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="4"/>
+      <c r="K10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="4"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="8">
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="4"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="4"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="4"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="4"/>
+      <c r="K15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="4"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="4"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="10">
         <v>3</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="9"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="5">
+      <c r="C18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="4"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="12"/>
+      <c r="C19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="4"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="12"/>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="4"/>
+      <c r="K20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="12"/>
+      <c r="C21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="4"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="12"/>
+      <c r="C22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="4"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="C23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="4"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="8">
         <v>4</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="5">
+      <c r="C24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="4"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="4"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="8">
         <v>5</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="C30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="8">
+      <c r="B36" s="10">
         <v>6</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="C36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="9"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="9"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="9"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="9"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="10"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="8">
+      <c r="B42" s="10">
         <v>7</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="C42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="9"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="9"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="9"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="9"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="10"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="8">
+        <v>8</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="8"/>
+      <c r="C50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="8"/>
+      <c r="C51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="8"/>
+      <c r="C53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="8">
+        <v>9</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="8"/>
+      <c r="C55" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="8"/>
+      <c r="C56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="8"/>
+      <c r="C58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="8"/>
+      <c r="C59" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="10">
+        <v>10</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="12"/>
+      <c r="C61" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="12"/>
+      <c r="C62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="12"/>
+      <c r="C63" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="12"/>
+      <c r="C64" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="14"/>
+      <c r="C65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="8">
+        <v>11</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="8"/>
+      <c r="C67" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="8"/>
+      <c r="C68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="8"/>
+      <c r="C69" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="8"/>
+      <c r="C70" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="8"/>
+      <c r="C71" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="8">
+        <v>12</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="8"/>
+      <c r="C73" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="8"/>
+      <c r="C74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="8"/>
+      <c r="C75" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="8"/>
+      <c r="C76" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="8"/>
+      <c r="C77" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="10">
+        <v>13</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="12"/>
+      <c r="C79" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="12"/>
+      <c r="C80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="12"/>
+      <c r="C81" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="12"/>
+      <c r="C82" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="14"/>
+      <c r="C83" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="10">
+        <v>14</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="12"/>
+      <c r="C85" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="12"/>
+      <c r="C86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="12"/>
+      <c r="C87" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="12"/>
+      <c r="C88" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="14"/>
+      <c r="C89" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="26">
+    <mergeCell ref="K15:L19"/>
+    <mergeCell ref="K20:L25"/>
+    <mergeCell ref="M15:P19"/>
+    <mergeCell ref="M20:P25"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="I48:I89"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="K2:P4"/>
+    <mergeCell ref="K5:L9"/>
+    <mergeCell ref="K10:L14"/>
+    <mergeCell ref="M5:P9"/>
+    <mergeCell ref="M10:P14"/>
     <mergeCell ref="B24:B29"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B2:I3"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="B18:B23"/>
+    <mergeCell ref="I6:I47"/>
+    <mergeCell ref="B2:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1062,7 +1930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7CFD03-D137-204F-A207-9C2997ECA64D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
